--- a/in/metadata/electrode_locations_mr_ct.xlsx
+++ b/in/metadata/electrode_locations_mr_ct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git\janhohenheim\usz-neuro-conversion\in\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64DA0EC-E482-46CE-81EB-235156DA191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868EFC1-9FBA-405B-AE94-3774BEF256C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IA" sheetId="2" r:id="rId1"/>
@@ -6689,7 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
@@ -18423,7 +18423,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19881,7 +19881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -22747,7 +22747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -33305,10 +33305,13 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="65.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
@@ -33874,7 +33877,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34451,23 +34454,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>25.3205308172593</v>
       </c>
@@ -34477,14 +34480,14 @@
       <c r="D2">
         <v>-11.8928486707959</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>27.897798403780801</v>
       </c>
@@ -34494,14 +34497,14 @@
       <c r="D3">
         <v>-11.8488714312015</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>34.469919422664397</v>
       </c>
@@ -34511,14 +34514,14 @@
       <c r="D4">
         <v>-10.746005059937501</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>39.385570865488504</v>
       </c>
@@ -34528,14 +34531,14 @@
       <c r="D5">
         <v>-9.7025977601230302</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>46.068560849278803</v>
       </c>
@@ -34545,14 +34548,14 @@
       <c r="D6">
         <v>-7.7656704378699102</v>
       </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>51.467259182109302</v>
       </c>
@@ -34562,14 +34565,14 @@
       <c r="D7">
         <v>-6.7116553652503104</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>55.788190164959197</v>
       </c>
@@ -34579,14 +34582,14 @@
       <c r="D8">
         <v>-5.4141970833641899</v>
       </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>62.4281947952935</v>
       </c>
@@ -34596,14 +34599,14 @@
       <c r="D9">
         <v>-3.9250893078935198</v>
       </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>33.616890297433301</v>
       </c>
@@ -34613,14 +34616,14 @@
       <c r="D10">
         <v>-6.62927299210937</v>
       </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>36.440076805866703</v>
       </c>
@@ -34630,14 +34633,14 @@
       <c r="D11">
         <v>-6.6552163667399604</v>
       </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>42.762295375769199</v>
       </c>
@@ -34647,14 +34650,14 @@
       <c r="D12">
         <v>-5.8487268438870501</v>
       </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>48.395315076969403</v>
       </c>
@@ -34664,14 +34667,14 @@
       <c r="D13">
         <v>-4.9129495310587696</v>
       </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>54.462407739341998</v>
       </c>
@@ -34681,14 +34684,14 @@
       <c r="D14">
         <v>-4.6106200493184897</v>
       </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>59.007714593957203</v>
       </c>
@@ -34698,14 +34701,14 @@
       <c r="D15">
         <v>-3.4278534687972</v>
       </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>65.345407551356899</v>
       </c>
@@ -34715,14 +34718,14 @@
       <c r="D16">
         <v>-2.8905113149082902</v>
       </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>71.174373800199803</v>
       </c>
@@ -34732,14 +34735,14 @@
       <c r="D17">
         <v>-1.52705290063642</v>
       </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>-31.120821444457398</v>
       </c>
@@ -34749,14 +34752,14 @@
       <c r="D18">
         <v>-1.9052276883468</v>
       </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>-33.5930728910608</v>
       </c>
@@ -34766,14 +34769,14 @@
       <c r="D19">
         <v>-1.3343886621194101</v>
       </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>-39.852512454541802</v>
       </c>
@@ -34783,14 +34786,14 @@
       <c r="D20">
         <v>-0.66143684011113002</v>
       </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>-44.0548868995212</v>
       </c>
@@ -34800,14 +34803,14 @@
       <c r="D21">
         <v>-1.17757635576185E-2</v>
       </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>-49.700606250481798</v>
       </c>
@@ -34817,14 +34820,14 @@
       <c r="D22">
         <v>1.1899436081470101</v>
       </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>-54.371112449732202</v>
       </c>
@@ -34834,14 +34837,14 @@
       <c r="D23">
         <v>1.8416896110743699</v>
       </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>-60.007929403982303</v>
       </c>
@@ -34851,14 +34854,14 @@
       <c r="D24">
         <v>2.4872270360961202</v>
       </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>-64.787667436616701</v>
       </c>
@@ -34867,6 +34870,9 @@
       </c>
       <c r="D25">
         <v>3.9662685461831901</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>252</v>
@@ -34893,8 +34899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/in/metadata/electrode_locations_mr_ct.xlsx
+++ b/in/metadata/electrode_locations_mr_ct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git\janhohenheim\usz-neuro-conversion\in\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868EFC1-9FBA-405B-AE94-3774BEF256C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3B192-23C2-422A-86E3-01613CD84177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34457,7 +34457,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
